--- a/SourceCode/efficientnet_pytorch/PixelHeatMap.xlsx
+++ b/SourceCode/efficientnet_pytorch/PixelHeatMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="windowRatioCalculation" sheetId="5" r:id="rId1"/>
@@ -7784,7 +7784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1531"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -32263,7 +32263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:BJ48"/>
   <sheetViews>
-    <sheetView topLeftCell="AG11" workbookViewId="0">
+    <sheetView topLeftCell="AG7" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:BJ48"/>
     </sheetView>
   </sheetViews>
@@ -40942,10 +40942,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ23"/>
+  <dimension ref="A1:BM23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AY30" sqref="AY30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BM8" sqref="BM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -40955,7 +40955,7 @@
     <col min="33" max="62" width="2.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:65">
       <c r="A1">
         <v>22</v>
       </c>
@@ -41143,7 +41143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:65">
       <c r="A2">
         <v>22</v>
       </c>
@@ -41331,7 +41331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:65">
       <c r="A3">
         <v>22</v>
       </c>
@@ -41519,7 +41519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:65">
       <c r="A4">
         <v>25</v>
       </c>
@@ -41707,7 +41707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:65">
       <c r="A5">
         <v>26</v>
       </c>
@@ -41895,7 +41895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:65">
       <c r="A6">
         <v>27</v>
       </c>
@@ -42083,7 +42083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:65">
       <c r="A7">
         <v>23</v>
       </c>
@@ -42270,8 +42270,12 @@
       <c r="BJ7">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:62">
+      <c r="BM7">
+        <f>23*15+90</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65">
       <c r="A8">
         <v>22</v>
       </c>
@@ -42459,7 +42463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:65">
       <c r="A9">
         <v>19</v>
       </c>
@@ -42647,7 +42651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:65">
       <c r="A10">
         <v>27</v>
       </c>
@@ -42835,7 +42839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:65">
       <c r="A11">
         <v>29</v>
       </c>
@@ -43023,7 +43027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:65">
       <c r="A12">
         <v>34</v>
       </c>
@@ -43211,7 +43215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:65">
       <c r="A13">
         <v>27</v>
       </c>
@@ -43399,7 +43403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:65">
       <c r="A14">
         <v>22</v>
       </c>
@@ -43587,7 +43591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:65">
       <c r="A15">
         <v>22</v>
       </c>
@@ -43775,7 +43779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:65">
       <c r="A16">
         <v>30</v>
       </c>

--- a/SourceCode/efficientnet_pytorch/PixelHeatMap.xlsx
+++ b/SourceCode/efficientnet_pytorch/PixelHeatMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="windowRatioCalculation" sheetId="5" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="coordinates" sheetId="2" r:id="rId3"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId4"/>
     <sheet name="ResultHeatMap" sheetId="4" r:id="rId5"/>
+    <sheet name="Arkusz1" sheetId="6" r:id="rId6"/>
+    <sheet name="Arkusz2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">listOfResults!$A$1:$Q$800</definedName>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6873" uniqueCount="2209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6891" uniqueCount="2215">
   <si>
     <t>x=90</t>
   </si>
@@ -6648,6 +6650,24 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>150x450</t>
+  </si>
+  <si>
+    <t>300x450</t>
+  </si>
+  <si>
+    <t>450x450</t>
+  </si>
+  <si>
+    <t>600x450</t>
+  </si>
+  <si>
+    <t>750x450</t>
+  </si>
+  <si>
+    <t>900x450</t>
   </si>
 </sst>
 </file>
@@ -6826,7 +6846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6887,6 +6907,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -6929,6 +6970,111 @@
         <a:xfrm>
           <a:off x="0" y="4360334"/>
           <a:ext cx="13874750" cy="4246940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1085850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1257300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1190625" y="1085850"/>
+          <a:ext cx="10115550" cy="5886450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="chilly" dir="t">
+            <a:rot lat="0" lon="0" rev="18480000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d prstMaterial="clear">
+          <a:bevelT h="63500"/>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>296070</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1652927</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>732369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="296070" y="5445921"/>
+          <a:ext cx="11905795" cy="4930511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7229,7 +7375,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O21"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7306,14 +7452,14 @@
         <v>1016</v>
       </c>
       <c r="L2" s="29">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="M2" s="29"/>
       <c r="N2" s="29">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="O2" s="30">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15">
@@ -7387,11 +7533,11 @@
       <c r="J5" s="30"/>
       <c r="K5" s="28">
         <f>ROUNDDOWN((K2-N2)/O2+1,0)</f>
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="L5" s="28">
         <f>ROUNDDOWN((L2-N2)/O2+1,0)</f>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -7440,7 +7586,7 @@
       <c r="K7" s="28"/>
       <c r="L7" s="29">
         <f>K5*L5</f>
-        <v>1426</v>
+        <v>18</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
@@ -7545,7 +7691,7 @@
       </c>
       <c r="L11" s="31">
         <f>L2/K2*K11</f>
-        <v>424.31496062992125</v>
+        <v>577.51181102362204</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="31">
@@ -7634,7 +7780,7 @@
       </c>
       <c r="L15" s="31">
         <f>L11/N11</f>
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
@@ -40944,7 +41090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="BM8" sqref="BM8"/>
     </sheetView>
   </sheetViews>
@@ -45305,4 +45451,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="112.5" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B2" s="42" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B3" s="42" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B4" s="42" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>2213</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B8" s="42">
+        <v>24</v>
+      </c>
+      <c r="C8" s="42">
+        <v>25</v>
+      </c>
+      <c r="D8" s="42">
+        <v>35</v>
+      </c>
+      <c r="E8" s="42">
+        <v>44</v>
+      </c>
+      <c r="F8" s="42">
+        <v>29</v>
+      </c>
+      <c r="G8" s="42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B9" s="42">
+        <v>24</v>
+      </c>
+      <c r="C9" s="42">
+        <v>18</v>
+      </c>
+      <c r="D9" s="42">
+        <v>36</v>
+      </c>
+      <c r="E9" s="42">
+        <v>56</v>
+      </c>
+      <c r="F9" s="42">
+        <v>48</v>
+      </c>
+      <c r="G9" s="42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B10" s="42">
+        <v>38</v>
+      </c>
+      <c r="C10" s="42">
+        <v>62</v>
+      </c>
+      <c r="D10" s="42">
+        <v>42</v>
+      </c>
+      <c r="E10" s="42">
+        <v>79</v>
+      </c>
+      <c r="F10" s="42">
+        <v>51</v>
+      </c>
+      <c r="G10" s="42">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.75" defaultRowHeight="66.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1"/>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="93.75" customHeight="1">
+      <c r="A3">
+        <v>150</v>
+      </c>
+      <c r="B3" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3" s="44">
+        <v>25</v>
+      </c>
+      <c r="D3" s="44">
+        <v>35</v>
+      </c>
+      <c r="E3" s="44">
+        <v>44</v>
+      </c>
+      <c r="F3" s="44">
+        <v>29</v>
+      </c>
+      <c r="G3" s="45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="93.75" customHeight="1">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4" s="43">
+        <v>24</v>
+      </c>
+      <c r="C4" s="44">
+        <v>18</v>
+      </c>
+      <c r="D4" s="44">
+        <v>36</v>
+      </c>
+      <c r="E4" s="44">
+        <v>56</v>
+      </c>
+      <c r="F4" s="44">
+        <v>48</v>
+      </c>
+      <c r="G4" s="45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="93.75" customHeight="1">
+      <c r="B5" s="43">
+        <v>38</v>
+      </c>
+      <c r="C5" s="44">
+        <v>62</v>
+      </c>
+      <c r="D5" s="44">
+        <v>42</v>
+      </c>
+      <c r="E5" s="44">
+        <v>79</v>
+      </c>
+      <c r="F5" s="44">
+        <v>51</v>
+      </c>
+      <c r="G5" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="93.75" customHeight="1">
+      <c r="B6" s="46">
+        <v>1</v>
+      </c>
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47">
+        <v>1</v>
+      </c>
+      <c r="G6" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="66.75" customHeight="1">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" ht="66.75" customHeight="1">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:G5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SourceCode/efficientnet_pytorch/PixelHeatMap.xlsx
+++ b/SourceCode/efficientnet_pytorch/PixelHeatMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="windowRatioCalculation" sheetId="5" r:id="rId1"/>
@@ -7372,10 +7372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7436,30 +7436,30 @@
         <v>60</v>
       </c>
       <c r="F2" s="28">
-        <v>960</v>
+        <v>420</v>
       </c>
       <c r="G2" s="29">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J2" s="30">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K2" s="28">
-        <v>1016</v>
+        <v>420</v>
       </c>
       <c r="L2" s="29">
-        <v>573</v>
+        <v>330</v>
       </c>
       <c r="M2" s="29"/>
       <c r="N2" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O2" s="30">
-        <v>150</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15">
@@ -7522,22 +7522,22 @@
       <c r="E5" s="30"/>
       <c r="F5" s="28">
         <f>ROUNDDOWN((F2-I2)/J2+1,0)</f>
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G5" s="28">
         <f>ROUNDDOWN((G2-I2)/J2+1,0)</f>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="30"/>
       <c r="K5" s="28">
         <f>ROUNDDOWN((K2-N2)/O2+1,0)</f>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L5" s="28">
         <f>ROUNDDOWN((L2-N2)/O2+1,0)</f>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -7578,7 +7578,7 @@
       <c r="F7" s="28"/>
       <c r="G7" s="29">
         <f>F5*G5</f>
-        <v>480</v>
+        <v>1598</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -7586,7 +7586,7 @@
       <c r="K7" s="28"/>
       <c r="L7" s="29">
         <f>K5*L5</f>
-        <v>18</v>
+        <v>1189</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
@@ -7678,12 +7678,12 @@
       </c>
       <c r="G11" s="31">
         <f>G2/F2*F11</f>
-        <v>576</v>
+        <v>804.57142857142856</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31">
         <f>F11/F2</f>
-        <v>1.0666666666666667</v>
+        <v>2.4380952380952383</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="10">
@@ -7691,12 +7691,12 @@
       </c>
       <c r="L11" s="31">
         <f>L2/K2*K11</f>
-        <v>577.51181102362204</v>
+        <v>804.57142857142856</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="31">
         <f>K11/K2</f>
-        <v>1.0078740157480315</v>
+        <v>2.4380952380952383</v>
       </c>
       <c r="O11" s="12"/>
     </row>
@@ -7765,22 +7765,22 @@
       <c r="E15" s="12"/>
       <c r="F15" s="10">
         <f>F11/I11</f>
-        <v>960</v>
+        <v>419.99999999999994</v>
       </c>
       <c r="G15" s="31">
         <f>G11/I11</f>
-        <v>540</v>
+        <v>329.99999999999994</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
       <c r="J15" s="12"/>
       <c r="K15" s="10">
         <f>K11/N11</f>
-        <v>1016</v>
+        <v>419.99999999999994</v>
       </c>
       <c r="L15" s="31">
         <f>L11/N11</f>
-        <v>573</v>
+        <v>329.99999999999994</v>
       </c>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
@@ -7920,6 +7920,16 @@
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35">
+        <v>420</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45617,7 +45627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
